--- a/Parameters/transport_parameters.xlsx
+++ b/Parameters/transport_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/mans3904_ox_ac_uk/Documents/DPhil/GEOH2/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mans3904/Documents/GitHub/GEOH2-private/Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{465E32D3-D5CA-4EAD-9512-3B08779BE17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AC085BE-C997-47D3-B6CB-8D472AB345C8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7257CA11-2058-C947-88B1-62C5B507FA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="3" xr2:uid="{01CAD706-003C-4A74-9F03-CC297AE4FC2E}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="10000" windowHeight="14480" xr2:uid="{01CAD706-003C-4A74-9F03-CC297AE4FC2E}"/>
   </bookViews>
   <sheets>
     <sheet name="500 bar" sheetId="1" r:id="rId1"/>
@@ -440,21 +440,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23198DE7-106D-4D74-B711-F3D7F49409F2}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -462,7 +462,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -470,7 +470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -478,7 +478,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -486,7 +486,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -494,7 +494,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -502,7 +502,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -510,7 +510,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -518,7 +518,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -526,7 +526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -542,7 +542,7 @@
         <v>660000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -550,7 +550,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -558,7 +558,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -566,7 +566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -584,20 +584,20 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -605,7 +605,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -613,7 +613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -621,7 +621,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -629,7 +629,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -637,7 +637,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -645,7 +645,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -653,7 +653,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -661,7 +661,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -669,7 +669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -677,7 +677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -685,7 +685,7 @@
         <v>860000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -693,7 +693,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -701,7 +701,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -709,7 +709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -727,20 +727,20 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -748,7 +748,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -756,7 +756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -764,7 +764,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -772,7 +772,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -780,7 +780,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -788,7 +788,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -796,7 +796,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -812,7 +812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -820,15 +820,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -836,7 +836,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -844,7 +844,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -852,7 +852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -869,21 +869,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2336249F-38D8-48A5-AB33-F1F0C167058D}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -891,7 +891,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -899,7 +899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -907,15 +907,15 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -923,7 +923,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -931,7 +931,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -939,7 +939,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -947,7 +947,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -955,23 +955,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -979,7 +979,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -987,7 +987,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
